--- a/ExecucoesGerais/tuning/tuning_perturbacao_porcentagem_FINO_cada02_0a10.xlsx
+++ b/ExecucoesGerais/tuning/tuning_perturbacao_porcentagem_FINO_cada02_0a10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7965" activeTab="3"/>
+    <workbookView windowWidth="19485" windowHeight="7965" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="ROS" sheetId="4" r:id="rId3"/>
     <sheet name="SCH" sheetId="5" r:id="rId4"/>
     <sheet name="ACK" sheetId="1" r:id="rId5"/>
+    <sheet name="BEA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>std</t>
   </si>
@@ -38,14 +39,26 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -59,11 +72,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,46 +88,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,13 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +117,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -159,7 +150,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +164,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,9 +194,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +231,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,13 +315,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,73 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,73 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,22 +423,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,17 +482,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,188 +516,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5678,6 +5700,965 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" altLang="en-US"/>
+              <a:t>BEALE</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEA!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO1real1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEA!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEA!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.281734919219283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30536020479932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.182852759431086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.137150529670259</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="0.00E+00">
+                  <c:v>1.74491211097944e-5</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="0.00E+00">
+                  <c:v>1.28784410960677e-5</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="0.00E+00">
+                  <c:v>1.78331031377579e-5</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="0.00E+00">
+                  <c:v>2.13686631393187e-5</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="0.00E+00">
+                  <c:v>3.84423644741369e-5</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="0.00E+00">
+                  <c:v>3.56166251409776e-5</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00E+00">
+                  <c:v>4.54648024892432e-5</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="0.00E+00">
+                  <c:v>4.47883935346847e-5</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="0.00E+00">
+                  <c:v>5.89525330401821e-5</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="0.00E+00">
+                  <c:v>9.03213321637414e-5</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="0.00E+00">
+                  <c:v>8.86674415695166e-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000103260539190042</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000102574817059175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000116680945887108</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000131700726084567</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000189714319899042</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000198031493386158</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000246500587329283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000342653812929114</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000260111491330285</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000337809473064676</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000294109490736098</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00146681960350166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000404234212868351</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000681806056187752</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000638704905102644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000509358042283715</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000632624194350763</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000646004163041751</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000514659850527645</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000755986443703229</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000922398639927715</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000596021607796344</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.00136975538498376</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.00122729301043437</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000991242888311073</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.00128655072221275</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.00139346856500007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.00262171266892776</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.00175331767955034</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.00337384818723628</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0182521855212205</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0488826395068481</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.00169110186162987</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.00278721239222036</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.00857974355432843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>BEA!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AGEO2real1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>BEA!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>BEA!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.243708458321465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27419418815715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.289456894493317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.258997780128141</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144786276014364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0152446284908886</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="0.00E+00">
+                  <c:v>8.98967015326328e-6</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="0.00E+00">
+                  <c:v>8.9661309595277e-6</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="0.00E+00">
+                  <c:v>1.07198726217371e-5</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="0.00E+00">
+                  <c:v>1.07172281223815e-5</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="0.00E+00">
+                  <c:v>1.94701643612149e-5</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="0.00E+00">
+                  <c:v>1.73673104517115e-5</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="0.00E+00">
+                  <c:v>2.21600723016392e-5</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="0.00E+00">
+                  <c:v>2.26307806610977e-5</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="0.00E+00">
+                  <c:v>2.9521304896862e-5</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="0.00E+00">
+                  <c:v>3.47687363594059e-5</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="0.00E+00">
+                  <c:v>3.33073851975138e-5</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="0.00E+00">
+                  <c:v>4.2319485444817e-5</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="0.00E+00">
+                  <c:v>4.40049322084606e-5</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="0.00E+00">
+                  <c:v>5.25904155307882e-5</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="0.00E+00">
+                  <c:v>5.16026490151658e-5</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="0.00E+00">
+                  <c:v>7.51707987721595e-5</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="0.00E+00">
+                  <c:v>7.47897040278298e-5</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="0.00E+00">
+                  <c:v>6.25404811740248e-5</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="0.00E+00">
+                  <c:v>7.98313000643139e-5</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="0.00E+00">
+                  <c:v>9.6102785444136e-5</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="0.00E+00">
+                  <c:v>8.85898947756434e-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00012261019735727</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="0.00E+00">
+                  <c:v>8.97047869147818e-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000141454628142066</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000120180100068692</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000136739456697189</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000142778289132451</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000153882607160752</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000150086985270866</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000158677114548156</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000184982385391871</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000195569150251174</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000196003585897299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000192827782874478</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000207033044919922</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000236461824098441</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000208284355458425</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.000206751449740541</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.000192732311949986</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000353574984316953</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.000249237432203306</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.000290144708626802</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.000247532706962524</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.000330067759855946</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="250347862"/>
+        <c:axId val="959553584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="250347862"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="959553584"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="959553584"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250347862"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5878,6 +6859,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7943,6 +8964,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8620,6 +10157,41 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3482975" y="177800"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3644900" y="8559800"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8920,13 +10492,13 @@
       <c r="A2">
         <v>2.4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.317243446711517</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.0748857879651403</v>
       </c>
     </row>
@@ -9977,13 +11549,13 @@
       <c r="A25">
         <v>0.49152</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>4.8</v>
       </c>
       <c r="C25">
         <v>31.1363669642276</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>2.72814390194489</v>
       </c>
     </row>
@@ -10005,10 +11577,10 @@
       <c r="A27">
         <v>0.53248</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="4">
         <v>5.2</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>28.8292086061766</v>
       </c>
       <c r="D27">
@@ -10391,13 +11963,13 @@
       <c r="A2">
         <v>0.008192</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.2</v>
       </c>
       <c r="C2">
         <v>0.00119796728228293</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>2.28495610362101e-6</v>
       </c>
     </row>
@@ -10405,13 +11977,13 @@
       <c r="A3">
         <v>0.016384</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>0.4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>1.04071729703302e-5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>4.92168022880919e-6</v>
       </c>
     </row>
@@ -10422,10 +11994,10 @@
       <c r="B4">
         <v>0.6</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>1.27881954497995e-5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>1.04848606780218e-5</v>
       </c>
     </row>
@@ -10436,10 +12008,10 @@
       <c r="B5">
         <v>0.8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>2.90974567686047e-5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>1.03762214482698e-5</v>
       </c>
     </row>
@@ -10450,10 +12022,10 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>4.98605989469989e-5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1.9793142599492e-5</v>
       </c>
     </row>
@@ -10464,10 +12036,10 @@
       <c r="B7">
         <v>1.2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>4.017631776781e-5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>2.08021783335382e-5</v>
       </c>
     </row>
@@ -10478,10 +12050,10 @@
       <c r="B8">
         <v>1.4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>5.96905974478731e-5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>4.09857635172542e-5</v>
       </c>
     </row>
@@ -10495,7 +12067,7 @@
       <c r="C9">
         <v>0.000105161601607091</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>3.89954849393683e-5</v>
       </c>
     </row>
@@ -10509,7 +12081,7 @@
       <c r="C10">
         <v>0.000140247917099521</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>6.79429181533911e-5</v>
       </c>
     </row>
@@ -10520,10 +12092,10 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>9.39579578862966e-5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>4.57589856841891e-5</v>
       </c>
     </row>
@@ -10537,7 +12109,7 @@
       <c r="C12">
         <v>0.000156502333880887</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>7.43461855615525e-5</v>
       </c>
     </row>
@@ -10551,7 +12123,7 @@
       <c r="C13">
         <v>0.00013339863292034</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>8.93032469924114e-5</v>
       </c>
     </row>
@@ -11099,7 +12671,7 @@
   <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -11462,10 +13034,10 @@
       <c r="A26">
         <v>50</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>5</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>1094.59506014717</v>
       </c>
       <c r="D26">
@@ -11700,13 +13272,13 @@
       <c r="A43">
         <v>84</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="4">
         <v>8.4</v>
       </c>
       <c r="C43">
         <v>1217.61280065971</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="4">
         <v>354.131501773708</v>
       </c>
     </row>
@@ -11835,7 +13407,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -11917,13 +13489,13 @@
       <c r="A6">
         <v>0.6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6">
         <v>19.5259361757317</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.195567645242522</v>
       </c>
     </row>
@@ -12099,10 +13671,10 @@
       <c r="A19">
         <v>2.16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>3.6</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>5.81752552223566</v>
       </c>
       <c r="D19">
@@ -12555,6 +14127,741 @@
       </c>
       <c r="D51">
         <v>2.52130026862102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="4" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0.018</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.281734919219283</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.243708458321465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0.036</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.30536020479932</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.27419418815715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>0.054</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.182852759431086</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.289456894493317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>0.072</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.137150529670259</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.258997780128141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.74491211097944e-5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.144786276014364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>0.108</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.28784410960677e-5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0152446284908886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>0.126</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.78331031377579e-5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.98967015326328e-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>0.144</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.13686631393187e-5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.9661309595277e-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>0.162</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.84423644741369e-5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1.07198726217371e-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.56166251409776e-5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.07172281223815e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>0.198</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4.54648024892432e-5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.94701643612149e-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>0.216</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4.47883935346847e-5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.73673104517115e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>0.234</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.89525330401821e-5</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2.21600723016392e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>0.252</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="C15" s="3">
+        <v>9.03213321637414e-5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2.26307806610977e-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8.86674415695166e-5</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.9521304896862e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>0.288</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.000103260539190042</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.47687363594059e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>0.306</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.000102574817059175</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.33073851975138e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>0.324</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.000116680945887108</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4.2319485444817e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>0.341999999999999</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.000131700726084567</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4.40049322084606e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.000189714319899042</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5.25904155307882e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>0.378</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.000198031493386158</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5.16026490151658e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>0.396</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4.4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.000246500587329283</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7.51707987721595e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>0.414</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.000342653812929114</v>
+      </c>
+      <c r="D24" s="3">
+        <v>7.47897040278298e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.000260111491330285</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6.25404811740248e-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.000337809473064676</v>
+      </c>
+      <c r="D26" s="3">
+        <v>7.98313000643139e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>0.468</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.000294109490736098</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9.6102785444136e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>0.486</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.00146681960350166</v>
+      </c>
+      <c r="D28" s="3">
+        <v>8.85898947756434e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>0.504</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.000404234212868351</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.00012261019735727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>0.522</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.000681806056187752</v>
+      </c>
+      <c r="D30" s="3">
+        <v>8.97047869147818e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="B31" s="2">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.000638704905102644</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.000141454628142066</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>0.558</v>
+      </c>
+      <c r="B32" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.000509358042283715</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.000120180100068692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>0.576</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.000632624194350763</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.000136739456697189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>0.594</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.000646004163041751</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.000142778289132451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>0.612</v>
+      </c>
+      <c r="B35" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.000514659850527645</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.000153882607160752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.000755986443703229</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.000150086985270866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>0.648</v>
+      </c>
+      <c r="B37" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.000922398639927715</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.000158677114548156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>0.666</v>
+      </c>
+      <c r="B38" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.000596021607796344</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.000184982385391871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>0.683999999999999</v>
+      </c>
+      <c r="B39" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.00136975538498376</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.000195569150251174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>0.702</v>
+      </c>
+      <c r="B40" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.00122729301043437</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.000196003585897299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="B41" s="2">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.000991242888311073</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.000192827782874478</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>0.737999999999999</v>
+      </c>
+      <c r="B42" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.00128655072221275</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.000207033044919922</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>0.756</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.00139346856500007</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.000236461824098441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>0.773999999999999</v>
+      </c>
+      <c r="B44" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.00262171266892776</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.000208284355458425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>0.792</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.00175331767955034</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.000206751449740541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>0.809999999999999</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.00337384818723628</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.000192732311949986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>0.828</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.0182521855212205</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.000353574984316953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>0.846</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.0488826395068481</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.000249237432203306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>0.864</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.00169110186162987</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.000290144708626802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>0.882</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.00278721239222036</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.000247532706962524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.00857974355432843</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.000330067759855946</v>
       </c>
     </row>
   </sheetData>
